--- a/Instances/04_Lumpy.xlsx
+++ b/Instances/04_Lumpy.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2298</v>
+        <v>1991</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>263.52</v>
+        <v>1.07</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>711</v>
+        <v>976</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>141.88</v>
+        <v>0.54</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>25.81</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>42.72</v>
+        <v>0.19</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>71</v>
+        <v>0.21</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>18.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>5.62</v>
+        <v>0.02</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>491</v>
+        <v>625</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>79.25</v>
+        <v>0.31</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>567</v>
+        <v>395</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>62.45</v>
+        <v>0.26</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1577</v>
+        <v>1388</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>179.82</v>
+        <v>0.8</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>36.22</v>
+        <v>0.19</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2939</v>
+        <v>2084</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>379.15</v>
+        <v>1.3</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1095</v>
+        <v>1144</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>135.11</v>
+        <v>0.53</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>32.62</v>
+        <v>0.12</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>43.21</v>
+        <v>0.19</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>310</v>
+        <v>457</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>60.27</v>
+        <v>0.22</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>20.27</v>
+        <v>0.08</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>6.08</v>
+        <v>0.02</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3239</v>
+        <v>3630</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>604.17</v>
+        <v>2.53</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5756</v>
+        <v>3678</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>603.76</v>
+        <v>1.96</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5814</v>
+        <v>3526</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>631.0599999999999</v>
+        <v>2.66</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3784</v>
+        <v>4131</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>639.12</v>
+        <v>2.03</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14580</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3240</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>540</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1512</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2700</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3240</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14580</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1350</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1080</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>486</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>270</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21600</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Lumpy.xlsx
+++ b/Instances/04_Lumpy.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1991</v>
+        <v>2252</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>1.07</v>
+        <v>242.2576913558748</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>976</v>
+        <v>465</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.54</v>
+        <v>107.1847720389946</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>23.65144325501188</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19</v>
+        <v>37.81984423664658</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>505</v>
+        <v>294</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>45.12917654985474</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07000000000000001</v>
+        <v>15.06848946761223</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>4.34060217156916</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>625</v>
+        <v>469</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.31</v>
+        <v>63.55827690225335</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.26</v>
+        <v>41.80936340020359</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1388</v>
+        <v>1259</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8</v>
+        <v>162.4948699966181</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.19</v>
+        <v>42.26058850669356</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2084</v>
+        <v>1809</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>1.3</v>
+        <v>215.1346258819067</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1144</v>
+        <v>740</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.53</v>
+        <v>117.8306105934231</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12</v>
+        <v>28.54126268526408</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.19</v>
+        <v>28.58736009062762</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.22</v>
+        <v>45.03032837541451</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08</v>
+        <v>13.82853092207553</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02</v>
+        <v>5.375780550756749</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3630</v>
+        <v>4480</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>2.53</v>
+        <v>62.55525503351133</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3678</v>
+        <v>2890</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>1.96</v>
+        <v>66.36629877618843</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3526</v>
+        <v>3504</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>2.66</v>
+        <v>89.71205785277753</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4131</v>
+        <v>2586</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>2.03</v>
+        <v>238.8762793845735</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5832</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2160</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>810</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1620</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2268</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1080</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6480</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2916</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4320</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>810</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10800</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5400</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10800</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Lumpy.xlsx
+++ b/Instances/04_Lumpy.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2252</v>
+        <v>1714</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>242.2576913558748</v>
+        <v>16.10147530853425</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>465</v>
+        <v>874</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1847720389946</v>
+        <v>7.191355681015313</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>23.65144325501188</v>
+        <v>1.806095368247908</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>37.81984423664658</v>
+        <v>1.762611582183212</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>45.12917654985474</v>
+        <v>2.514350178405667</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>15.06848946761223</v>
+        <v>1.062724905839786</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>4.34060217156916</v>
+        <v>0.3614014750245257</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>63.55827690225335</v>
+        <v>3.933730372462036</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>41.80936340020359</v>
+        <v>2.682154311732253</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1259</v>
+        <v>1018</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>162.4948699966181</v>
+        <v>9.385866171696801</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>42.26058850669356</v>
+        <v>2.227072064845945</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1809</v>
+        <v>1398</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>215.1346258819067</v>
+        <v>18.74837031754233</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>117.8306105934231</v>
+        <v>6.426579572854553</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>28.54126268526408</v>
+        <v>1.540604516217058</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>28.58736009062762</v>
+        <v>2.280676413623743</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>45.03032837541451</v>
+        <v>2.996763784997976</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>13.82853092207553</v>
+        <v>1.050756374440385</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>5.375780550756749</v>
+        <v>0.3284550628645015</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4480</v>
+        <v>3170</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.55525503351133</v>
+        <v>3.182685999142655</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2890</v>
+        <v>3401</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.36629877618843</v>
+        <v>4.09631362294115</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3504</v>
+        <v>2915</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>89.71205785277753</v>
+        <v>6.00046802422515</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2586</v>
+        <v>2555</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>238.8762793845735</v>
+        <v>16.22809686862863</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2916</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1350</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1890</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>540</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>486</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>216</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3024</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8100</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1890</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11664</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2160</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1512</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>162</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21600</v>
+        <v>27000</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Lumpy.xlsx
+++ b/Instances/04_Lumpy.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1714</v>
+        <v>8040</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>16.10147530853425</v>
+        <v>128.88972425079</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>874</v>
+        <v>2964</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>7.191355681015313</v>
+        <v>42.76901477406363</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>142</v>
+        <v>732</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.806095368247908</v>
+        <v>10.67145244833798</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>1029</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.762611582183212</v>
+        <v>20.63905432488665</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>235</v>
+        <v>1475</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>2.514350178405667</v>
+        <v>20.57991200696332</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>110</v>
+        <v>437</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1.062724905839786</v>
+        <v>6.917723636513854</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3614014750245257</v>
+        <v>2.675318929714905</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>488</v>
+        <v>2070</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>3.933730372462036</v>
+        <v>41.03377731752879</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>381</v>
+        <v>1475</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>2.682154311732253</v>
+        <v>27.51426097398481</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1018</v>
+        <v>4456</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>9.385866171696801</v>
+        <v>63.3253850236827</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>240</v>
+        <v>1029</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>2.227072064845945</v>
+        <v>16.72742238024831</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1398</v>
+        <v>8040</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>18.74837031754233</v>
+        <v>122.3495029180978</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>706</v>
+        <v>2964</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>6.426579572854553</v>
+        <v>40.09296791896094</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>732</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>1.540604516217058</v>
+        <v>14.17494244760339</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>238</v>
+        <v>1029</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>2.280676413623743</v>
+        <v>18.09792353018626</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>350</v>
+        <v>1475</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>2.996763784997976</v>
+        <v>27.98555575540961</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.050756374440385</v>
+        <v>8.674417248340886</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3284550628645015</v>
+        <v>2.108949361877649</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3170</v>
+        <v>14918</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>3.182685999142655</v>
+        <v>28.11517760301158</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3401</v>
+        <v>14918</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>4.09631362294115</v>
+        <v>35.07627701310978</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2915</v>
+        <v>14918</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>6.00046802422515</v>
+        <v>34.30504708065973</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2555</v>
+        <v>14918</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>16.22809686862863</v>
+        <v>112.4861745186196</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8748</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1512</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1620</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1512</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1080</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1620</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14580</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5400</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1350</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1620</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5400</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10800</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16200</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>21600</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Lumpy.xlsx
+++ b/Instances/04_Lumpy.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8040</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>128.88972425079</v>
+        <v>192.456</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2964</v>
+        <v>9001</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>42.76901477406363</v>
+        <v>69.92999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>732</v>
+        <v>2251</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>10.67145244833798</v>
+        <v>17.50333333333333</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1029</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>20.63905432488665</v>
+        <v>24.37516666666667</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1475</v>
+        <v>4501</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>20.57991200696332</v>
+        <v>34.16333333333333</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>437</v>
+        <v>1351</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>6.917723636513854</v>
+        <v>10.272</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>451</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.675318929714905</v>
+        <v>3.409333333333333</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2070</v>
+        <v>6301</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>41.03377731752879</v>
+        <v>50.49566666666666</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1475</v>
+        <v>4501</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>27.51426097398481</v>
+        <v>35.99999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4456</v>
+        <v>13501</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>63.3253850236827</v>
+        <v>107.445</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1029</v>
+        <v>3151</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>16.72742238024831</v>
+        <v>25.235</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>8040</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>122.3495029180978</v>
+        <v>184.338</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2964</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>40.09296791896094</v>
+        <v>68.41666666666666</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>14.17494244760339</v>
+        <v>16.87416666666667</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1029</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>18.09792353018626</v>
+        <v>23.37766666666666</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>27.98555575540961</v>
+        <v>33.49499999999999</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>8.674417248340886</v>
+        <v>10.071</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>2.108949361877649</v>
+        <v>3.343333333333333</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>14918</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>28.11517760301158</v>
+        <v>43.83333333333334</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>14918</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>35.07627701310978</v>
+        <v>46.53333333333333</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>14918</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>34.30504708065973</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>14918</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>112.4861745186196</v>
+        <v>177.2333333333333</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2916</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3240</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2700</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>108</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6480</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1134</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5832</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3240</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1080</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1890</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>540</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>648</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>162</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5400</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21600</v>
+        <v>90000</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Lumpy.xlsx
+++ b/Instances/04_Lumpy.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>192.456</v>
+        <v>103.92624</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>9001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>69.92999999999999</v>
+        <v>37.7622</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2251</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>17.50333333333333</v>
+        <v>9.4518</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>24.37516666666667</v>
+        <v>13.16259</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4501</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>34.16333333333333</v>
+        <v>18.4482</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>10.272</v>
+        <v>5.546880000000002</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>3.409333333333333</v>
+        <v>1.84104</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6301</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>50.49566666666666</v>
+        <v>27.26766</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4501</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>35.99999999999999</v>
+        <v>19.44</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13501</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>107.445</v>
+        <v>58.0203</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3151</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>25.235</v>
+        <v>13.6269</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>184.338</v>
+        <v>99.54252000000001</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>68.41666666666666</v>
+        <v>36.94500000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>16.87416666666667</v>
+        <v>9.112050000000002</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>23.37766666666666</v>
+        <v>12.62394</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>33.49499999999999</v>
+        <v>18.0873</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>10.071</v>
+        <v>5.438340000000001</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>3.343333333333333</v>
+        <v>1.8054</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>43.83333333333334</v>
+        <v>23.67000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>46.53333333333333</v>
+        <v>25.128</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>57.59999999999999</v>
+        <v>31.104</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>177.2333333333333</v>
+        <v>95.70600000000002</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48600</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8400</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48600</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>60000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
